--- a/pred_ohlcv/54_21/2020-01-14 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-13175.01220480656</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-13174.81220480656</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-13190.86840480656</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-13056.00040480656</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-13056.00040480656</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-13379.14150480656</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-14029.61400480656</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-14029.61400480656</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-14029.41400480656</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-14009.63000480656</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-13997.62640480656</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-13997.62640480656</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-14342.96690480656</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-14244.12640480656</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-14259.41110480656</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-14258.41110480656</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-14378.59070480656</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-14428.77370480656</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-14506.39430480656</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14530.75920480656</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-15530.75920480656</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-15566.40420480656</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15552.63620480656</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16188.65770480656</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16188.65770480656</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-17366.73360480656</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17659.73360480656</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-17659.73360480656</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-17659.73360480656</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-16990.01390480656</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-16990.01390480656</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-16990.01390480656</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16401.91510480656</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16401.91510480656</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-18213.82505323723</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-18213.82505323723</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-18861.33985323723</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-18860.33985323723</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-18445.44549263358</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-18428.15809263358</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-18427.91359263358</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-18425.93729263358</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-18425.93729263358</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-18228.62079697454</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-18652.48909697454</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-18934.79339697454</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18933.79339697454</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-20607.42029697454</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-20615.42029697454</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-20647.94819697454</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-21167.94819697454</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-21360.47679254416</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23001.66129254416</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-23001.66129254416</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-23091.95499254416</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-23283.95499254416</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-23540.42119254416</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-23762.36809254416</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-24486.14089254416</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-23241.22569254416</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-23594.93179254416</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-23807.96159254416</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-23794.17039254416</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-35714.87339254416</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36735.37129254416</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-48060.98279254416</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-46282.77169254416</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-46263.81709254416</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-45827.41209254416</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-46084.14959254416</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-46048.13409254415</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-46049.13409254415</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-46098.90119254415</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-54840.40309254415</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-55336.02199254415</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-54762.36199254415</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-55205.16199254415</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-55347.47419254415</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-53698.65639254415</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-53780.15639254415</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-53232.55119254415</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-52374.43709254415</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-53616.38919254416</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-55120.85099254415</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4314539.235921421</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>4314395.794221421</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>4313381.471387384</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>4313381.471387384</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>4312898.121787384</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>4310079.171587384</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>4309976.308087384</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4307431.373707077</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4307419.341807077</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>4307455.417007077</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4303376.434207076</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4301521.644507076</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4301532.955507075</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4301532.955507075</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4301508.714607076</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4301508.924607076</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4301508.924607076</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>4301368.924607076</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4301346.924607076</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4301223.543507076</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4301153.304173471</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>4295360.225560308</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LINK ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-13190.86840480656</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-13056.00040480656</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-13379.14150480656</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-14029.61400480656</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-13997.62640480656</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-14342.96690480656</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-14244.12640480656</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-14259.41110480656</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-14258.41110480656</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-14378.59070480656</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-14428.77370480656</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-14506.39430480656</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14530.75920480656</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-15530.75920480656</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15552.63620480656</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16188.65770480656</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16188.65770480656</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-17366.73360480656</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-17659.73360480656</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-17659.73360480656</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-16990.01390480656</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-16990.01390480656</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16401.91510480656</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16401.91510480656</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-18213.82505323723</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-18213.82505323723</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-18861.33985323723</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-18860.33985323723</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-18445.44549263358</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-18428.15809263358</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-18427.91359263358</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-18425.93729263358</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-18425.93729263358</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-18228.62079697454</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-18652.48909697454</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-18934.79339697454</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18933.79339697454</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-20607.42029697454</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-20615.42029697454</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-20647.94819697454</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-21167.94819697454</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-21360.47679254416</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-23001.66129254416</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-23001.66129254416</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-23091.95499254416</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-23283.95499254416</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-23540.42119254416</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-23762.36809254416</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-24486.14089254416</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-23241.22569254416</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-23594.93179254416</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-23807.96159254416</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-23794.17039254416</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-24279.04489254416</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-24519.36919254416</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-27539.20999254416</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-35714.87339254416</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36735.37129254416</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-48060.98279254416</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-46282.77169254416</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-46263.81709254416</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-45827.41209254416</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-46084.14959254416</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-46048.13409254415</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-46049.13409254415</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-46098.90119254415</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-54762.36199254415</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-55205.16199254415</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-55347.47419254415</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-53698.65639254415</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-53780.15639254415</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-53232.55119254415</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-52374.43709254415</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-53616.38919254416</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-55120.85099254415</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4320217.379707456</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4320218.379707456</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4320144.684707455</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4314539.235921421</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4314395.794221421</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4314644.058387385</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4314544.058387385</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4314596.058387385</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4314596.058387385</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>4313711.810487385</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>4313692.988787385</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>4313692.988787385</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>4310079.171587384</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>4309976.308087384</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4307431.373707077</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4307419.341807077</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>4307455.417007077</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4307339.814307076</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4307339.814307076</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4307632.653207076</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4307632.653207076</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4307429.045807076</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4306456.631607075</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>4305780.344407075</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4305782.554407075</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4305500.614607075</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>4305500.824607075</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>4305500.824607075</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4305000.833307075</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4305000.833307075</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>4305016.527207076</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>4304916.527207076</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>4304917.527207076</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>4303973.155807076</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>4303973.155807076</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>4303975.155807076</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4303074.155807076</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>4303509.415307076</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4303509.415307076</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4303896.006607076</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4303710.671707076</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
